--- a/docs/output/reference/data-dictionaries/T_Dict.xlsx
+++ b/docs/output/reference/data-dictionaries/T_Dict.xlsx
@@ -616,72 +616,110 @@
           <t>Geography</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>FIPS</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>Federal Information Processing Standard code</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Land area of geography in sq miles</t>
+          <t>Federal Information Processing Standard code designated by the NIST; is two digits for states, five digits for counties, eleven digits for tracts.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>InfoGroup, 2018</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
-        </is>
-      </c>
+          <t>Tiger/Line 2018; Tiger/Line 2010</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>66452.74</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+          <t>36061</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
@@ -795,7 +833,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/GeographicBoundaries.md</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -814,17 +852,12 @@
           <t>050US01001-2018</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>The HEROP_ID is generated as follows: Summary Level Code + "US" + GEOID</t>
-        </is>
-      </c>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Geography</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -851,46 +884,18 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
@@ -899,41 +904,44 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>FIPS</t>
+          <t>Age20_24</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Federal Information Processing Standard code</t>
+          <t>Population: Age 20-24</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Federal Information Processing Standard code designated by the NIST; is two digits for states, five digits for counties, eleven digits for tracts.</t>
+          <t>Total population between age 20-24</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Geographic_Boundaries.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Tiger/Line 2018; Tiger/Line 2010</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>36061</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr"/>
+          <t>114772</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -973,18 +981,10 @@
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>Age15_24P</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Total Population</t>
+          <t>% Population: Age 15-24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Total population</t>
+          <t>Percentage of population between ages of 15 &amp; 24</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1024,24 +1024,15 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1632480</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>For more information about how these data have been used in homelessness and housing stability research, please refer to https://www.census.gov/newsroom/press-releases/2020/special-operations-homelessness.html or https://www.americanprogress.org/issues/poverty/reports/2020/10/05/491122/count-people-where-they-are/.</t>
-        </is>
-      </c>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1093,22 +1084,22 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Age18_64</t>
+          <t>AgeOv65</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Population: Age 18-64</t>
+          <t>Population: Age 65+</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Total adult population under age 65</t>
+          <t>Total population at or over age 65</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1128,12 +1119,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1139347</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>257362</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
@@ -1188,22 +1174,22 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Age0_4</t>
+          <t>Age15_19</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Population: Age 0-4</t>
+          <t>Population: Age 15-19</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Total population between age 0-4</t>
+          <t>Total population between age 15-19</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1223,12 +1209,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>79897</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>68706</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr"/>
@@ -1244,31 +1225,15 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1276,39 +1241,35 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Age5_14</t>
+          <t>Age45_54</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Population: Age 5-14</t>
+          <t>Population: Age 45-54</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Total population between age 5-14</t>
+          <t>Total population between age 45-54</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t>IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1318,12 +1279,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>122034</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>105</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr"/>
@@ -1378,22 +1334,22 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Age15_19</t>
+          <t>Age18_64</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Population: Age 15-19</t>
+          <t>Population: Age 18-64</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Total population between age 15-19</t>
+          <t>Total adult population under age 65</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1413,12 +1369,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>68706</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>1139347</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr"/>
@@ -1473,22 +1424,22 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Age20_24</t>
+          <t>Age0_4</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Population: Age 20-24</t>
+          <t>Population: Age 0-4</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Total population between age 20-24</t>
+          <t>Total population between age 0-4</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1508,12 +1459,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>114772</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>79897</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr"/>
@@ -1568,22 +1514,22 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>Age55_59</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Population: Age 15-44</t>
+          <t>Population: Age 55-59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Total population between age 15-44</t>
+          <t>Total population between age 55-59</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1603,12 +1549,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>784568</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>94082</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr"/>
@@ -1624,73 +1565,92 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Age45_54</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Population: Age 45-54</t>
+          <t>% Population: Age 65+</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Total population between age 45-54</t>
+          <t>Percentage of population over 65</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function, with county subdivisions as the underlying population weights.</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>The 1980 Census data does not allow for disaggregation into Age45_49 and Age50_54 variables, so this variable is used instead. The data itself is from its respective decennial census as downloaded from IPUMS NHGIS and crosswalked to 2010 census tracts using Longitudinal Tract Database crosswalk files. For more on the crosswalk files, see https://s4.ad.brown.edu/Projects/Diversity/researcher/bridging.htm</t>
-        </is>
-      </c>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1742,22 +1702,22 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Age55_59</t>
+          <t>Age60_64</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Population: Age 55-59</t>
+          <t>Population: Age 60-64</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Total population between age 55-59</t>
+          <t>Total population between age 60-64</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1777,12 +1737,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>94082</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>90711</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr"/>
@@ -1824,10 +1779,18 @@
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
@@ -1837,22 +1800,22 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Age60_64</t>
+          <t>TotPop</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Population: Age 60-64</t>
+          <t>Total Population</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Total population between age 60-64</t>
+          <t>Total population</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -1872,12 +1835,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>90711</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>1632480</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr"/>
@@ -1932,22 +1890,22 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>AgeOv65</t>
+          <t>Age5_14</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Population: Age 65+</t>
+          <t>Population: Age 5-14</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Total population at or over age 65</t>
+          <t>Total population between age 5-14</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -1967,12 +1925,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>257362</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>122034</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr"/>
@@ -2027,22 +1980,22 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Age15_24P</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>% Population: Age 15-24</t>
+          <t>Children %</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Percentage of population between ages of 15 &amp; 24</t>
+          <t>Percentage of population under age 18</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2062,12 +2015,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr"/>
@@ -2122,22 +2070,22 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Und45P</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>% Population: Age under 45</t>
+          <t>Population: Age 15-44</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
+          <t>Total population between age 15-44</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2152,17 +2100,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>784568</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr"/>
@@ -2204,18 +2147,10 @@
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
@@ -2225,22 +2160,22 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>Und45P</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>% Population: Age under 45</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Percentage of population over 65</t>
+          <t xml:space="preserve">	Percentage of population below 45 years of age</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2260,12 +2195,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15.77</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr"/>
@@ -2276,76 +2206,56 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>Und18P</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Children %</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Percentage of population under age 18</t>
-        </is>
-      </c>
+          <t>% Population under 18 years old</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2355,12 +2265,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr"/>
@@ -2399,18 +2304,18 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>FemP</t>
+          <t>Und5P</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>% Population that is Female</t>
+          <t xml:space="preserve">% Population under 5 years old </t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -2433,7 +2338,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2470,18 +2374,18 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>MaleP</t>
+          <t>Ovr18P</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>% Population that is Male</t>
+          <t>% Population over 18 years</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -2504,7 +2408,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2541,18 +2444,18 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>MedAge</t>
+          <t>SRatio65</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Median age</t>
+          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2575,7 +2478,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2623,7 +2525,7 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -2646,7 +2548,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2683,18 +2584,18 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Ovr18P</t>
+          <t>Ovr62P</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>% Population over 18 years</t>
+          <t>% Population over 62 years</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -2717,7 +2618,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2754,18 +2654,18 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Ovr21P</t>
+          <t>SRatio18</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>% Population over 21 years</t>
+          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -2788,7 +2688,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2825,18 +2724,18 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Ovr62P</t>
+          <t>MaleP</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>% Population over 62 years</t>
+          <t>% Population that is Male</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -2859,7 +2758,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2896,18 +2794,18 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>SRatio</t>
+          <t>Ovr21P</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Sex ratio for the total population (males per 100 females)</t>
+          <t>% Population over 21 years</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -2930,7 +2828,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2967,18 +2864,18 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>SRatio18</t>
+          <t>MedAge</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
+          <t>Median age</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3001,7 +2898,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -3038,18 +2934,18 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>SRatio65</t>
+          <t>SRatio</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+          <t>Sex ratio for the total population (males per 100 females)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3072,7 +2968,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -3109,18 +3004,18 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Und18P</t>
+          <t>FemP</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>% Population under 18 years old</t>
+          <t>% Population that is Female</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3143,7 +3038,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -3153,68 +3047,79 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Und5P</t>
+          <t>Age45_49</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Population under 5 years old </t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
+          <t>Population: Age 45-49</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Total population between age 45-49</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr"/>
+          <t>467768</t>
+        </is>
+      </c>
       <c r="AD31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -3259,22 +3164,22 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Age45_49</t>
+          <t>Age50_54</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Population: Age 45-49</t>
+          <t>Population: Age 50-54</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Total population between age 45-49</t>
+          <t>Total population between age 50-54</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -3289,20 +3194,15 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>467768</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>476486</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3311,16 +3211,8 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>x</t>
@@ -3346,32 +3238,32 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Age50_54</t>
+          <t>AgeOv18</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Population: Age 50-54</t>
+          <t>Population: Age 18+</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Total population between age 50-54</t>
+          <t>Total population at or over age 18</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographics.md</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -3381,15 +3273,10 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>476486</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>1990 and 2000 data from respective decennial censuses downloaded from IPUMS NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>5661461</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3400,57 +3287,53 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>AgeOv18</t>
+          <t>GradSclP</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Population: Age 18+</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Total population at or over age 18</t>
-        </is>
-      </c>
+          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Demographics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; 2010 Decennial Census</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; 2010 Decennial Census</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -3460,10 +3343,9 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>5661461</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -3500,18 +3382,18 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>BachelorsP</t>
+          <t>EngProf</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
+          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -3534,7 +3416,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -3571,18 +3452,18 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>EduHsP</t>
+          <t>EduNoHsP</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
+          <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -3605,7 +3486,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -3642,18 +3522,18 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>EduNoHsP</t>
+          <t>EduHsP</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with less than a high school diploma</t>
+          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -3676,7 +3556,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -3713,18 +3592,18 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
-          <t>GradSclP</t>
+          <t>BachelorsP</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -3747,7 +3626,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3795,7 +3673,7 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -3818,7 +3696,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3855,18 +3732,18 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>EngProf</t>
+          <t>HsdTypCo</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
+          <t>% Cohabiting couple household</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -3889,7 +3766,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -3907,11 +3783,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -3930,45 +3802,40 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>HhldFS</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Total number of people in households</t>
-        </is>
-      </c>
+          <t>% Female householder 65 years and over living alone</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>7151776</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -3986,11 +3853,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -4009,32 +3872,28 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>HhldMS</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Percent of people living in family households that are not related to family</t>
-        </is>
-      </c>
+          <t>% Male householder 65 years and over living alone</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -4044,10 +3903,9 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr"/>
+          <t>60.0</t>
+        </is>
+      </c>
       <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -4088,22 +3946,22 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Percent of people living in non-family households that are not related</t>
+          <t>Percent of people living in family households that are not related to family</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -4123,10 +3981,9 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>25.61</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr"/>
+          <t>3.35</t>
+        </is>
+      </c>
       <c r="AD43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -4163,18 +4020,18 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
-          <t>FamSize</t>
+          <t>OccupantP</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Average family size</t>
+          <t>% Occupied housing units</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -4197,7 +4054,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -4234,18 +4090,18 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>HsdTot</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Average household size</t>
+          <t>Total households</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -4268,7 +4124,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -4305,18 +4160,18 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t>HhldFA</t>
+          <t>FamSize</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living alone</t>
+          <t>Average family size</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -4339,7 +4194,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -4376,18 +4230,18 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>HhldFC</t>
+          <t>HsdTypM</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living with children under 18 years</t>
+          <t xml:space="preserve">% Married-couple household </t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -4410,7 +4264,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -4428,7 +4281,11 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -4447,28 +4304,32 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t>HhldFS</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>% Female householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr"/>
+          <t>% Nonrelatives in Non-family Households</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Percent of people living in non-family households that are not related</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -4478,10 +4339,9 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr"/>
+          <t>25.61</t>
+        </is>
+      </c>
       <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -4518,18 +4378,18 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t>HhldMA</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living alone</t>
+          <t>Average household size</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -4552,7 +4412,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -4570,7 +4429,11 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -4589,41 +4452,44 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>HhldMC</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living with children under 18 years</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr"/>
+          <t>Total Population in Households</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Total number of people in households</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr"/>
+          <t>7151776</t>
+        </is>
+      </c>
       <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -4660,18 +4526,18 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>HhldMS</t>
+          <t>HhldMC</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>% Male householder 65 years and over living alone</t>
+          <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -4694,7 +4560,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -4731,18 +4596,18 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>HsdTot</t>
+          <t>HhldMA</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -4765,7 +4630,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -4802,18 +4666,18 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>HsdTypCo</t>
+          <t>HsdTypMC</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>% Cohabiting couple household</t>
+          <t>% Married-couple household With children under 18 years</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -4836,7 +4700,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -4873,18 +4736,18 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>HsdTypM</t>
+          <t>HhldFC</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Married-couple household </t>
+          <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -4907,7 +4770,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -4944,18 +4806,18 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>HsdTypMC</t>
+          <t>HhldFA</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>% Married-couple household With children under 18 years</t>
+          <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -4978,7 +4840,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -5026,7 +4887,7 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HouseholdType.md</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
@@ -5049,7 +4910,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -5086,18 +4946,18 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>OccupantP</t>
+          <t>NvMrrdP</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>% Occupied housing units</t>
+          <t>% Males aged 15 or older who never got married</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/HouseholdType.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -5120,7 +4980,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -5157,18 +5016,18 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>DivrcdP</t>
+          <t>MrrdP</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>% Males 15 years and over who are divorced</t>
+          <t>% Males aged 15 or older who are married and living with their spouse</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
@@ -5191,7 +5050,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -5228,18 +5086,18 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>MrrdP</t>
+          <t>WidwdP</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who are married and living with their spouse</t>
+          <t>% Population aged 15 and over who are widowed</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -5262,7 +5120,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -5299,18 +5156,18 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>NvMrrdP</t>
+          <t>DivrcdP</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who never got married</t>
+          <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -5333,7 +5190,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -5381,7 +5237,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -5404,7 +5260,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -5413,56 +5268,76 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>WidwdP</t>
+          <t>NoHsP</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>% Population aged 15 and over who are widowed</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
+          <t>% Population without High School Degree</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Percentage of population 25 years and over, less than a high school degree</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -5472,10 +5347,9 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr"/>
+          <t>13.01</t>
+        </is>
+      </c>
       <c r="AD62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -5484,16 +5358,8 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>x</t>
@@ -5515,40 +5381,44 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>NoHsP</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>% Population without High School Degree</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Percentage of population 25 years and over, less than a high school degree</t>
+          <t>Percentage of civilian non institutionalized population with a disability</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Other_Demographic_2018.md</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; IPUMS NHGIS</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -5563,12 +5433,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr"/>
@@ -5579,8 +5444,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>x</t>
@@ -5616,35 +5489,39 @@
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Black/African American Populationw</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Percentage of civilian non institutionalized population with a disability</t>
+          <t>Percentage of population with race identified as Black or African American alone</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Other_Demographic_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates; Integrated Public Use Microdata Service National Historic Geographic Information Systems</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -5654,15 +5531,10 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12.7</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>Data from 2000 Census downloaded at county level from NHGIS and aggregated upwards.</t>
-        </is>
-      </c>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5701,18 +5573,10 @@
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
@@ -5722,22 +5586,22 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as white alone</t>
+          <t>Percentage of population with race identified as Asian alone</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -5757,12 +5621,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr"/>
@@ -5825,22 +5684,22 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>% Black/African American Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Black or African American alone</t>
+          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -5860,12 +5719,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>14.81</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr"/>
@@ -5935,7 +5789,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -5956,11 +5810,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>25.95</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr"/>
@@ -6023,22 +5872,22 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
+          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6058,12 +5907,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr"/>
@@ -6105,10 +5949,18 @@
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
@@ -6118,22 +5970,22 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Asian alone</t>
+          <t>Percentage of population with race identified as white alone</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -6153,12 +6005,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr"/>
@@ -6221,22 +6068,22 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Percentage of population with race identified as Native Hawaiian and Other Pacific Islander alone</t>
+          <t>Percentage of population with race identified as Native American or Alaska Native alone</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -6256,12 +6103,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr"/>
@@ -6272,36 +6114,16 @@
           <t>Social</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
@@ -6317,39 +6139,31 @@
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>HisP</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Percentage of Population with race not mentioned in any of the options above (includes two race or more races)</t>
-        </is>
-      </c>
+          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; IPUMS NHGIS</t>
+          <t xml:space="preserve">ACS </t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; 2010 Decennial Census; Integrated Public Use Microdata Series National Historic Geographic Information System</t>
+          <t>American Community Survey (5-Year Estimate)</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -6359,12 +6173,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was acquired from NHGIS and then interpolated to modern county boundaries through a population weighted interpolation using the tidycensus `interpolate_pw` function. For 1980, the underlying population weighting was county subdivisions, while for 1990 and 200 the underlying population weighting was tracts.</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr"/>
@@ -6403,18 +6212,18 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr">
         <is>
-          <t>HisP</t>
+          <t>TwoRaceP</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>% Population identifying as two or more races</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -6437,7 +6246,6 @@
           <t>60.0</t>
         </is>
       </c>
-      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -6449,13 +6257,21 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
@@ -6474,41 +6290,44 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr">
         <is>
-          <t>TwoRaceP</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>% Population identifying as two or more races</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr"/>
+          <t>Total Veteran Population</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Total Veteran population</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACS </t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>American Community Survey (5-Year Estimate)</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>60.0</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr"/>
+          <t>537713</t>
+        </is>
+      </c>
       <c r="AD73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -6553,71 +6372,62 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Total Veteran population</t>
+          <t>Percent of population that are veterans</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/VetPop.md</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>537713</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr"/>
+          <t>9.58</t>
+        </is>
+      </c>
       <c r="AD74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
@@ -6626,42 +6436,38 @@
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>VetP</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>% Veteran Population</t>
+          <t>Distance (mi) to nearest FQHC</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Percent of population that are veterans</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/VetPop.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>ACS 2017, 5-Year; ACS 2012, 5-Year</t>
+          <t>US Covid Atlas via HRSA, 2020</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>American Community Survey 2013-2017 5 Year Estimate; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -6671,10 +6477,9 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr"/>
+          <t>10.23</t>
+        </is>
+      </c>
       <c r="AD75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -6683,26 +6488,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -6723,33 +6512,44 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
+          <t>Count of FQHCs (30-min drive)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+          <t>Count of FQHCs within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>US Covid Atlas via HRSA, 2020</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+        </is>
+      </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr"/>
+          <t>17</t>
+        </is>
+      </c>
       <c r="AD76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -6758,26 +6558,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -6794,26 +6578,42 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>US Covid Atlas via HRSA, 2020</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>number</t>
@@ -6821,10 +6621,9 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr"/>
+          <t>19.16</t>
+        </is>
+      </c>
       <c r="AD77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -6833,26 +6632,10 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -6873,33 +6656,44 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
+          <t>Count of Hospitals (30-min drive)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+          <t>Count of hospitals within a 30-minute driving threshold</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
       <c r="AD78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -6928,26 +6722,42 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr">
         <is>
-          <t>NaltRm30</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>number</t>
@@ -6955,10 +6765,9 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -6991,22 +6800,34 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr">
         <is>
-          <t>NaltRm60</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
+          <t>Distance (mi) to nearest Hospital</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>CovidCareMap, 2020</t>
+        </is>
+      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>number</t>
@@ -7014,10 +6835,9 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr"/>
+          <t>0.31</t>
+        </is>
+      </c>
       <c r="AD80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -7045,38 +6865,53 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr">
         <is>
-          <t>NaltRm90</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+          <t>Count of methadone providers in 60 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -7104,38 +6939,53 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -7163,27 +7013,47 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+          <t>Driving time (minutes) to nearest naltrexone provider</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+        </is>
+      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>number</t>
@@ -7191,10 +7061,9 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr"/>
+          <t>35.34</t>
+        </is>
+      </c>
       <c r="AD83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -7214,35 +7083,47 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>BupCntDr60</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
+          <t>Count of buprenorphine providers (drive)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+          <t>Count of buprenorphine providers in 60 minute drive time threshold</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>SAMHSA</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>number</t>
@@ -7250,10 +7131,9 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>1.232</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr"/>
+          <t>121.0</t>
+        </is>
+      </c>
       <c r="AD84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -7281,59 +7161,54 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest FQHC, in miles</t>
+          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD85" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7360,41 +7235,41 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip FQHC destination centroid, in minutes</t>
+          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -7404,19 +7279,10 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>19.16</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD86" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7443,37 +7309,41 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Count of FQHCs within a 30-minute driving threshold</t>
+          <t>Count of methadone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_FQHCs_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>US Covid Atlas via HRSA, 2020</t>
+          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>United States Covid Atlas via Health Resources and Services Adminsitration, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -7483,19 +7353,10 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7531,22 +7392,22 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Distance (mi) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
+          <t>Euclidean distance (miles) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X88" t="inlineStr">
@@ -7566,19 +7427,10 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD88" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7610,26 +7462,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
+          <t>Driving time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
@@ -7649,19 +7505,10 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD89" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7701,22 +7548,22 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest buprenorphine provider</t>
+          <t>Biking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
@@ -7736,19 +7583,10 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD90" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>148.18</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7780,26 +7618,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Walking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
@@ -7814,24 +7656,11 @@
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD91" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7867,22 +7696,22 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest methadone provider</t>
+          <t>Euclidean distance (miles) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X92" t="inlineStr">
@@ -7902,19 +7731,10 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>13.22</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD92" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7933,11 +7753,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
@@ -7946,40 +7762,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>NaltCntDr60</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>Count of naltrexone providers (drive)</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest methadone provider</t>
+          <t>Count of naltrexone providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -7989,19 +7801,10 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8020,11 +7823,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -8037,54 +7836,45 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
+          <t>Distance to nearest OTP</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute drive time threshold</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD94" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8120,22 +7910,22 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
+          <t>Count of methadone providers (30-min bike)</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Euclidean distance (miles) to nearest naltrexone/Vivitrol provider</t>
+          <t>Count of methadone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X95" t="inlineStr">
@@ -8150,24 +7940,15 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>18.04</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD95" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8186,11 +7967,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
@@ -8199,40 +7976,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>MetCntDr60</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of methadone providers (drive)</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Driving time (minutes) to nearest naltrexone provider</t>
+          <t>Count of methadone providers in 60 minute drive time threshold</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMHSA</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>The Substance Abuse and Mental Health Services Administration</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -8242,19 +8015,10 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>35.34</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8273,12 +8037,12 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
@@ -8286,58 +8050,53 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8356,12 +8115,12 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
@@ -8369,62 +8128,49 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest buprenorphine provider</t>
+          <t>Count of OTPs within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
+          <t>SAMSHA, 2021</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8460,22 +8206,22 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (30-min bike)</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X99" t="inlineStr">
@@ -8495,19 +8241,10 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8558,7 +8295,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
@@ -8581,16 +8318,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8622,30 +8350,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest methadone provider</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
@@ -8660,24 +8384,15 @@
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>1744.66</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD101" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8713,22 +8428,22 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute walking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -8751,16 +8466,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD102" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8811,7 +8517,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
@@ -8834,16 +8540,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD103" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8875,30 +8572,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Walking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of naltrexone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X104" t="inlineStr">
@@ -8913,20 +8606,15 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD104" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8958,26 +8646,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute walking time threshold</t>
+          <t>Biking time (minutes) to nearest naltrexone provider</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
@@ -8992,24 +8684,15 @@
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC105" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD105" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>165.18</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9041,26 +8724,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute walking time threshold</t>
+          <t>Biking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
@@ -9075,7 +8762,7 @@
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr">
@@ -9083,16 +8770,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC106" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD106" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9124,30 +8802,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest buprenorphine provider</t>
+          <t>Euclidean distance (miles) to nearest MOUD (all types)</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
@@ -9167,19 +8841,10 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC107" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD107" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9211,26 +8876,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute biking time threshold</t>
+          <t>Walking time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X108" t="inlineStr">
@@ -9245,24 +8914,15 @@
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC108" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD108" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1744.66</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9298,22 +8958,22 @@
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
+          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
@@ -9333,19 +8993,10 @@
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC109" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD109" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9385,22 +9036,22 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest methadone provider</t>
+          <t>Driving time (minutes) to nearest methadone provider</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
@@ -9420,19 +9071,10 @@
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>148.18</t>
-        </is>
-      </c>
-      <c r="AC110" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD110" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9468,22 +9110,22 @@
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute biking time threshold</t>
+          <t>Count of methadone providers in 30 minute drive time threshold</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
@@ -9503,19 +9145,10 @@
       </c>
       <c r="AB111" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC111" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD111" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9547,26 +9180,30 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 30 minute biking time threshold</t>
+          <t>Walking time (minutes) to nearest buprenorphine provider</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X112" t="inlineStr">
@@ -9581,7 +9218,7 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr">
@@ -9589,16 +9226,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC112" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD112" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+      <c r="AD112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9630,30 +9258,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Biking time (minutes) to nearest naltrexone provider</t>
+          <t>Count of buprenorphine providers in 60 minute walking time threshold</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X113" t="inlineStr">
@@ -9668,24 +9292,15 @@
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>165.18</t>
-        </is>
-      </c>
-      <c r="AC113" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9721,22 +9336,22 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute biking time threshold</t>
+          <t>Count of buprenorphine providers in 30 minute biking time threshold</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
@@ -9756,19 +9371,10 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC114" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD114" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9776,10 +9382,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -9795,63 +9417,42 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>MetRm60</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 30 minute biking time threshold</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2019; Vivitrol, 2020; OSRM, 2020</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2019; Vivitrol, 2020; Open Source Routing Machine, 200</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
-        </is>
-      </c>
-      <c r="AD115" t="inlineStr">
-        <is>
-          <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9859,10 +9460,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -9870,47 +9487,39 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>MetRm90</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers in 60 minute drive time threshold</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
       <c r="AA116" t="inlineStr">
         <is>
           <t>number</t>
@@ -9918,10 +9527,9 @@
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC116" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -9930,10 +9538,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -9941,47 +9565,39 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>MetRm30</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers in 60 minute drive time threshold</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
       <c r="AA117" t="inlineStr">
         <is>
           <t>number</t>
@@ -9989,10 +9605,9 @@
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC117" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -10012,47 +9627,39 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>NaltRm60</t>
         </is>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Count of methadone providers in 60 minute drive time threshold</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MOUDs.md</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="AA118" t="inlineStr">
         <is>
           <t>number</t>
@@ -10060,10 +9667,9 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC118" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -10096,34 +9702,26 @@
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>BupRm60</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2020</t>
-        </is>
-      </c>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
       <c r="AA119" t="inlineStr">
         <is>
           <t>number</t>
@@ -10131,19 +9729,10 @@
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="AC119" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD119" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10171,42 +9760,30 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>NaltRm30</t>
         </is>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
-        </is>
-      </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2020</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
       <c r="AA120" t="inlineStr">
         <is>
           <t>number</t>
@@ -10214,19 +9791,10 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC120" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD120" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10258,54 +9826,37 @@
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>NaltRm90</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Count of MH providers within a 30-minute driving threshold</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_MentalHealth_MinDistance.md</t>
-        </is>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>SAMHSA, 2020</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC121" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD121" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10324,47 +9875,39 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>BupRm90</t>
         </is>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest OTP service location, in miles</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>SAMHSA</t>
-        </is>
-      </c>
-      <c r="Y122" t="inlineStr">
-        <is>
-          <t>The Substance Abuse and Mental Health Services Administration</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
       <c r="AA122" t="inlineStr">
         <is>
           <t>number</t>
@@ -10372,10 +9915,9 @@
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="AC122" t="inlineStr"/>
+          <t>1.232</t>
+        </is>
+      </c>
       <c r="AD122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -10395,55 +9937,39 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>BupRm30</t>
         </is>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip OTP destination centroid, in minutes</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
-        </is>
-      </c>
-      <c r="X123" t="inlineStr">
-        <is>
-          <t>SAMSHA, 2021</t>
-        </is>
-      </c>
-      <c r="Y123" t="inlineStr">
-        <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
-        </is>
-      </c>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
       <c r="AA123" t="inlineStr">
         <is>
           <t>number</t>
@@ -10451,15 +9977,10 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>1.232</t>
+        </is>
+      </c>
+      <c r="AD123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10478,49 +9999,45 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Count of Mental Health Providers (30-min drive)</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Count of OTPs within a 30-minute driving threshold</t>
+          <t>Count of MH providers within a 30-minute driving threshold</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_OpioidUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>SAMSHA, 2021</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2021</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -10530,15 +10047,10 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10556,12 +10068,12 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
@@ -10570,32 +10082,32 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
+          <t>Distance (mi) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest mental health provider, in miles</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -10605,19 +10117,10 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="AC125" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD125" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="AD125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10635,12 +10138,12 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
@@ -10653,32 +10156,32 @@
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip mental health provider destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>InfoGroup, 2019</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -10691,16 +10194,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AC126" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD126" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10747,7 +10241,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_Pharmacies_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X127" t="inlineStr">
@@ -10770,16 +10264,7 @@
           <t>58</t>
         </is>
       </c>
-      <c r="AC127" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD127" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10797,46 +10282,50 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
+          <t>Driving Time (min) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip pharmacy destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
@@ -10846,19 +10335,10 @@
       </c>
       <c r="AB128" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="AC128" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD128" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10876,50 +10356,46 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Distance (mi) to nearest Pharmacy</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest pharmacy, in miles</t>
         </is>
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>SAMHSA, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
+          <t>InfoGroup, 2019</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
@@ -10929,19 +10405,10 @@
       </c>
       <c r="AB129" t="inlineStr">
         <is>
-          <t>17.76</t>
-        </is>
-      </c>
-      <c r="AC129" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD129" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="AD129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10988,7 +10455,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X130" t="inlineStr">
@@ -11011,16 +10478,7 @@
           <t>4</t>
         </is>
       </c>
-      <c r="AC130" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD130" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+      <c r="AD130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11052,32 +10510,32 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>Euclidean distance* from tract/zip centroid to nearest hospital, in miles</t>
+          <t>Euclidean distance* from tract/zip centroid to nearest SUT service location, in miles</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
@@ -11087,19 +10545,10 @@
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="AC131" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD131" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="AD131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11135,32 +10584,32 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Driving time from tract/zip origin centroid to the nearest tract/zip hospital destination centroid, in minutes</t>
+          <t>Driving time from tract/zip origin centroid to the nearest tract/zip SUT destination centroid, in minutes</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>SAMHSA, 2020</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>U.S. Substance Abuse and Mental Health Services Administration Treatment Locator, 2020</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
@@ -11170,19 +10619,10 @@
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC132" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD132" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="AD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11199,13 +10639,13 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
@@ -11214,54 +10654,45 @@
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Count of hospitals within a 30-minute driving threshold</t>
+          <t>Land area of geography in sq miles</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Acesss_Hospitals_MinDistance.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup, 2018</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>CovidCareMap, 2020</t>
+          <t>InfoGroup's 2018 Business and Consumer Historical Datafile</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AC133" t="inlineStr">
-        <is>
-          <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
-        </is>
-      </c>
-      <c r="AD133" t="inlineStr">
-        <is>
-          <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
-        </is>
-      </c>
+          <t>66452.74</t>
+        </is>
+      </c>
+      <c r="AD133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11308,7 +10739,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
@@ -11329,12 +10760,6 @@
       <c r="AB134" t="inlineStr">
         <is>
           <t>421</t>
-        </is>
-      </c>
-      <c r="AC134" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD134" t="inlineStr"/>
@@ -11384,7 +10809,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
@@ -11405,12 +10830,6 @@
       <c r="AB135" t="inlineStr">
         <is>
           <t>0.01</t>
-        </is>
-      </c>
-      <c r="AC135" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD135" t="inlineStr"/>
@@ -11460,7 +10879,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/AlcoholOutlets_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
       <c r="X136" t="inlineStr">
@@ -11481,12 +10900,6 @@
       <c r="AB136" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="AC136" t="inlineStr">
-        <is>
-          <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
-The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
         </is>
       </c>
       <c r="AD136" t="inlineStr"/>
@@ -11500,17 +10913,17 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
@@ -11521,47 +10934,42 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Number of primary care providers in area</t>
+          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas, 2010</t>
+          <t>Sentinel-2 MSI, 2018</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
+          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>5904</t>
-        </is>
-      </c>
-      <c r="AC137" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="AD137" t="inlineStr"/>
@@ -11611,7 +11019,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X138" t="inlineStr">
@@ -11632,11 +11040,6 @@
       <c r="AB138" t="inlineStr">
         <is>
           <t>9499</t>
-        </is>
-      </c>
-      <c r="AC138" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
         </is>
       </c>
       <c r="AD138" t="inlineStr"/>
@@ -11667,30 +11070,26 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="R139" t="inlineStr"/>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>PCPs per total Population X 100,000</t>
+          <t>Number of primary care providers in area</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
@@ -11700,22 +11099,17 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
+          <t>Dartmouth Atlas' Primary Care Service Area Project, 2010</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>133.42</t>
-        </is>
-      </c>
-      <c r="AC139" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>5904</t>
         </is>
       </c>
       <c r="AD139" t="inlineStr"/>
@@ -11746,26 +11140,30 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>Specialty Physicians per total Population X 100,000</t>
+          <t>PCPs per total Population X 100,000</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Health_PCPs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
@@ -11785,12 +11183,7 @@
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>41.05</t>
-        </is>
-      </c>
-      <c r="AC140" t="inlineStr">
-        <is>
-          <t>Does not include U.S. territories Puerto Rico, Guam, Northern Mariana Islands, American Samoa, Virgin Islands, or Washington, D.C.</t>
+          <t>133.42</t>
         </is>
       </c>
       <c r="AD140" t="inlineStr"/>
@@ -11801,21 +11194,9 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>x</t>
@@ -11826,74 +11207,53 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Specialty Physicians per 100k</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Count of total occupied housing units</t>
+          <t>Specialty Physicians per total Population X 100,000</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
+          <t>Dartmouth Atlas, 2010</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
+          <t>Dartmouth Atlas' Primary Care Service Area (PCSA) Project</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>874237</t>
-        </is>
-      </c>
-      <c r="AC141" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="AD141" t="inlineStr"/>
@@ -11971,7 +11331,7 @@
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
@@ -11992,11 +11352,6 @@
       <c r="AB142" t="inlineStr">
         <is>
           <t>13.28</t>
-        </is>
-      </c>
-      <c r="AC142" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
         </is>
       </c>
       <c r="AD142" t="inlineStr"/>
@@ -12007,10 +11362,26 @@
           <t>Environment</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -12036,48 +11407,51 @@
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Percentage of total housing units categorized as mobile housing structures</t>
+          <t>Count of total occupied housing units</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year</t>
+          <t>ACS 2018, 5-Year; Census 2010; Social Explorer</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate; American Community Survey 2008-2012; Social Explorer Historic Census Data on 2010 Geometries</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="AC143" t="inlineStr"/>
+          <t>874237</t>
+        </is>
+      </c>
       <c r="AD143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -12118,22 +11492,22 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
+          <t>Number of housing units per square mile of land area</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X144" t="inlineStr">
@@ -12153,10 +11527,9 @@
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="AC144" t="inlineStr"/>
+          <t>46.11</t>
+        </is>
+      </c>
       <c r="AD144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -12212,7 +11585,7 @@
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
@@ -12235,7 +11608,6 @@
           <t>37.28</t>
         </is>
       </c>
-      <c r="AC145" t="inlineStr"/>
       <c r="AD145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -12276,22 +11648,22 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Number of housing units per square mile of land area</t>
+          <t>Percentage of total housing units categorized as mobile housing structures</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
@@ -12311,10 +11683,9 @@
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>46.11</t>
-        </is>
-      </c>
-      <c r="AC146" t="inlineStr"/>
+          <t>6.39</t>
+        </is>
+      </c>
       <c r="AD146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -12332,47 +11703,55 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Percentage of Households without Internet access</t>
+          <t>Percentage of population who moved into their current housing more than 20 years ago</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Internet_2019.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>ACS, 2019</t>
+          <t>ACS 2018, 5-Year</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>American Community Survey 2015-2019 5 Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimate</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
@@ -12382,10 +11761,9 @@
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="AC147" t="inlineStr"/>
+          <t>19.99</t>
+        </is>
+      </c>
       <c r="AD147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -12397,7 +11775,11 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -12418,47 +11800,42 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Average normalized difference vegetation index, a measure of greenness used to determine the amount of vegetation in an area, value from all pixel values in each Census tract</t>
+          <t>Primary RUCA Code</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/NDVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>Sentinel-2 MSI, 2018</t>
+          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>Sentinel 2 MSI: MultiSpectral Instrument Level-1 C</t>
+          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="AC148" t="inlineStr">
-        <is>
-          <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD148" t="inlineStr"/>
@@ -12472,7 +11849,11 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -12493,22 +11874,22 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
+          <t>Secondary RUCA Code</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
@@ -12528,10 +11909,9 @@
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC149" t="inlineStr"/>
+          <t>1.1</t>
+        </is>
+      </c>
       <c r="AD149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -12560,26 +11940,30 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban-Suburban-Rural</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
+          <t>Urban/Suburban/Rural</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Rural_Urban_Classification_County.md</t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
@@ -12599,22 +11983,37 @@
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="AC150" t="inlineStr"/>
+          <t>Urban</t>
+        </is>
+      </c>
       <c r="AD150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Environment</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -12626,58 +12025,65 @@
         </is>
       </c>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural</t>
+          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Rural_Urban_Classification_County.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>USDA-ERS 2010 &amp; ACS 2018 5-Year</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture Economic Research Service, 2010; American Community Survey 2014-2018 5-Year Estimate</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="AC151" t="inlineStr"/>
+          <t>16.6</t>
+        </is>
+      </c>
       <c r="AD151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -12738,22 +12144,22 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Number of individuals earning below the poverty income threshold as a percentage of the total population</t>
+          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
@@ -12773,19 +12179,10 @@
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="AC152" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="AD152" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12793,21 +12190,9 @@
           <t>Economic</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>x</t>
@@ -12838,61 +12223,48 @@
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>The number of unemployed individuals as a percentage of the civilian labor force</t>
+          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year; Social Explorer</t>
+          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates; Social Explorer Historic Census Data on 2010 Geographies</t>
+          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="AC153" t="inlineStr">
-        <is>
-          <t>1980-2000 historic data was  interpolated onto 2010 county geographies by Social Explorer.</t>
-        </is>
-      </c>
-      <c r="AD153" t="inlineStr">
-        <is>
-          <t>For complete definitions of ACS variables described above, please refer to the American Community Survey &amp; Puerto Rico Community Survey 2018 Subject Definitions.</t>
-        </is>
-      </c>
+          <t>36888</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12951,7 +12323,7 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic.md</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
@@ -12974,7 +12346,6 @@
           <t>34148</t>
         </is>
       </c>
-      <c r="AC154" t="inlineStr"/>
       <c r="AD154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -13019,22 +12390,22 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>Per capita income for individuals in the past 12 months (in 2018 inflation-adjusted dollars)</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Economic.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X155" t="inlineStr">
@@ -13049,15 +12420,14 @@
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>36888</t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr"/>
+          <t>0.46</t>
+        </is>
+      </c>
       <c r="AD155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -13069,11 +12439,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -13085,49 +12451,41 @@
         </is>
       </c>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>ACS 2018, 5-Year; ACS 2012, 5-Year</t>
+          <t>HUD, 2018</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>American Community Survey 2014-2018 5 Year Estimates; American Community Survey 2008-2012 5-Year Estimates</t>
+          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
@@ -13137,10 +12495,9 @@
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="AC156" t="inlineStr"/>
+          <t>48.09</t>
+        </is>
+      </c>
       <c r="AD156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -13188,7 +12545,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
@@ -13211,16 +12568,7 @@
           <t>5.53</t>
         </is>
       </c>
-      <c r="AC157" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="AD157" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+      <c r="AD157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13237,12 +12585,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -13252,32 +12600,32 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Estimated number of mortgages to start foreclosure process or be seriously delinquent during the 2008 Recession</t>
+          <t>Percentage of Households without Internet access</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/ForeclosureRate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>HUD, 2018</t>
+          <t>ACS, 2019</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>U.S. Department of Housing and Urban Development Neighborhood Stabilization Program</t>
+          <t>American Community Survey 2015-2019 5 Year Estimate</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
@@ -13287,19 +12635,10 @@
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>48.09</t>
-        </is>
-      </c>
-      <c r="AC158" t="inlineStr">
-        <is>
-          <t>The data reflects 2007-2008 estimates. Note again, via NSP2 Data and Methodology: The estimated rate of foreclosure problems do not reflect "real" numbers of foreclosures but rather reflect neighborhood characteristics that are estimated to have a high level of risk for foreclosure.</t>
-        </is>
-      </c>
-      <c r="AD158" t="inlineStr">
-        <is>
-          <t>For more recent county, state, and metro area data on mortgage delinquencies, see Mortgage Performance Trends data from the U.S. Consumer Financial Protection Bureau.</t>
-        </is>
-      </c>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="AD158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13354,7 +12693,7 @@
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X159" t="inlineStr">
@@ -13377,7 +12716,6 @@
           <t>3513856</t>
         </is>
       </c>
-      <c r="AC159" t="inlineStr"/>
       <c r="AD159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -13418,22 +12756,22 @@
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Percentage of population employed in educational services industry</t>
+          <t>Percentage of population employed in retail trade industry</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
@@ -13453,12 +12791,7 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="AC160" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>11.7</t>
         </is>
       </c>
       <c r="AD160" t="inlineStr"/>
@@ -13516,7 +12849,7 @@
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X161" t="inlineStr">
@@ -13537,11 +12870,6 @@
       <c r="AB161" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AC161" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
       <c r="AD161" t="inlineStr"/>
@@ -13599,7 +12927,7 @@
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
@@ -13620,11 +12948,6 @@
       <c r="AB162" t="inlineStr">
         <is>
           <t>13.13</t>
-        </is>
-      </c>
-      <c r="AC162" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
         </is>
       </c>
       <c r="AD162" t="inlineStr"/>
@@ -13667,22 +12990,22 @@
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>EduP</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Employed % - Education</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Percentage of population employed in retail trade industry</t>
+          <t>Percentage of population employed in educational services industry</t>
         </is>
       </c>
       <c r="W163" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byIndustry_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byIndustry_2018.md</t>
         </is>
       </c>
       <c r="X163" t="inlineStr">
@@ -13702,12 +13025,7 @@
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>11.7</t>
-        </is>
-      </c>
-      <c r="AC163" t="inlineStr">
-        <is>
-          <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="AD163" t="inlineStr"/>
@@ -13765,7 +13083,7 @@
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="X164" t="inlineStr">
@@ -13788,7 +13106,6 @@
           <t>42.96</t>
         </is>
       </c>
-      <c r="AC164" t="inlineStr"/>
       <c r="AD164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -13836,7 +13153,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/Job_Categories_byOccupation_2018.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Job_Categories_byOccupation_2018.md</t>
         </is>
       </c>
       <c r="X165" t="inlineStr">
@@ -13859,7 +13176,6 @@
           <t>1509709</t>
         </is>
       </c>
-      <c r="AC165" t="inlineStr"/>
       <c r="AD165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -13907,7 +13223,7 @@
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X166" t="inlineStr">
@@ -13928,11 +13244,6 @@
       <c r="AB166" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AC166" t="inlineStr">
-        <is>
-          <t>Some tracts are not assigned with any typologies because data are missing for factor analysis.</t>
         </is>
       </c>
       <c r="AD166" t="inlineStr"/>
@@ -13971,22 +13282,22 @@
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr">
         <is>
-          <t>SocEcAdvIn</t>
+          <t>UrbCoreInd</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>Socioeconomic Advantage Index</t>
+          <t>Urban Core Opportunity Index</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X167" t="inlineStr">
@@ -14006,10 +13317,9 @@
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="AC167" t="inlineStr"/>
+          <t>-0.06</t>
+        </is>
+      </c>
       <c r="AD167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -14046,22 +13356,22 @@
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr">
         <is>
-          <t>LimMobInd</t>
+          <t>MicaInd</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>Limited Moblility Index</t>
+          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X168" t="inlineStr">
@@ -14081,10 +13391,9 @@
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="AC168" t="inlineStr"/>
+          <t>0.59</t>
+        </is>
+      </c>
       <c r="AD168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -14121,22 +13430,22 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr">
         <is>
-          <t>UrbCoreInd</t>
+          <t>SocEcAdvIn</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>Urban Core Opportunity Index</t>
+          <t>Socioeconomic Advantage Index</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>Raw Urban Core Opportunity Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Socioeconomic Advantage Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X169" t="inlineStr">
@@ -14156,10 +13465,9 @@
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="AC169" t="inlineStr"/>
+          <t>1.17</t>
+        </is>
+      </c>
       <c r="AD169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -14196,22 +13504,22 @@
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr">
         <is>
-          <t>MicaInd</t>
+          <t>LimMobInd</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>Mixed Immigrant Cohesion and Accesibility (MICA) Index</t>
+          <t>Limited Moblility Index</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>Raw Mixed Immigrant Cohesion and Accessibility (MICA) Index (https://sdohatlas.github.io/)</t>
+          <t>Raw Limited Mobility Index (https://sdohatlas.github.io/)</t>
         </is>
       </c>
       <c r="W170" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SDOH_2014.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SDOHIndices.md</t>
         </is>
       </c>
       <c r="X170" t="inlineStr">
@@ -14231,10 +13539,9 @@
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="AC170" t="inlineStr"/>
+          <t>0.54</t>
+        </is>
+      </c>
       <c r="AD170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -14279,22 +13586,22 @@
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr">
         <is>
-          <t>SviTh1</t>
+          <t>SviTh4</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 1</t>
+          <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 1: Socioeconomic</t>
+          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X171" t="inlineStr">
@@ -14314,12 +13621,7 @@
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="AC171" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="AD171" t="inlineStr"/>
@@ -14362,22 +13664,22 @@
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr">
         <is>
-          <t>SviTh2</t>
+          <t>SviSmryRnk</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 2</t>
+          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
+          <t>Overall summary ranking</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
@@ -14397,12 +13699,7 @@
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AC172" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="AD172" t="inlineStr"/>
@@ -14460,7 +13757,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
@@ -14481,11 +13778,6 @@
       <c r="AB173" t="inlineStr">
         <is>
           <t>0.2</t>
-        </is>
-      </c>
-      <c r="AC173" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
         </is>
       </c>
       <c r="AD173" t="inlineStr"/>
@@ -14532,22 +13824,22 @@
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr">
         <is>
-          <t>SviTh4</t>
+          <t>SviTh1</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) 4</t>
+          <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>SVI Ranking, Theme 4: Housing Type &amp; Transportation</t>
+          <t>SVI Ranking, Theme 1: Socioeconomic</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X174" t="inlineStr">
@@ -14567,12 +13859,7 @@
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="AC174" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AD174" t="inlineStr"/>
@@ -14615,22 +13902,22 @@
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr">
         <is>
-          <t>SviSmryRnk</t>
+          <t>SviTh2</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>Social Vulnerability Index (SVI) Summary Ranking</t>
+          <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Overall summary ranking</t>
+          <t>SVI Ranking, Theme 2: Household Composition &amp; Disability</t>
         </is>
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>https://github.com/GeoDaCenter/opioid-policy-scan/blob/main/data_final/metadata/SVI.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/SVI.md</t>
         </is>
       </c>
       <c r="X175" t="inlineStr">
@@ -14650,12 +13937,7 @@
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="AC175" t="inlineStr">
-        <is>
-          <t>Please note that the SVI dataset at the ZIP code level is an estimate based on crosswalking the original CDC SVI Census tract measures to ZIP codes; some gaps in this data are to be expected. The ZIP code data does not include Puerto Rico or other US territories.</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="AD175" t="inlineStr"/>
